--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF849B82-F0AB-46FC-AB65-6049DBD586A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5A035-8172-4E75-A60A-A2A23855A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="7125" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,74 @@
   </si>
   <si>
     <t>Congratulations on getting $ $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从感染科逃出来的医生\n医术高明\n可惜长年的工作导致小腿静脉曲张，行动不便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大爆炸中活下来的拆弹专家\n秘诀是从不脱下他的重装\n防御超高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的魔法师\n随身跟着一本浮空魔法书\n威力莫测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称来自未来的机器人\n身体充满科技感\n有着超越人类的移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明组织的特工\n受过特殊训练\n身体素质超越常人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCTOR_STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBDISEX_STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGICIAN_STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REBOT_STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPY_STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The doctor who escaped from the infection department\n has excellent medical skills\nIt's a pity that the long-term work has caused varicose veins in the calf, which makes it difficult to move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bomb disposal expert who survived the Big Bang\nThe secret is never taking off his armor\nSuper defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mysterious magician\nfollows a floating magic book\nunpredictable power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A robot that claims to come from the future\nThe body is full of technology\nIt has a moving speed that surpasses that of humans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agents of unknown organizations\n have received special training\n physical fitness surpasses that of ordinary people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,17 +787,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="171.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,6 +1249,97 @@
       </c>
       <c r="E32" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2002</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2003</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2004</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2005</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>3001</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D5A035-8172-4E75-A60A-A2A23855A0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9AF1A-DF94-4AFB-A7F4-BF20EFDBB346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="182">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从感染科逃出来的医生\n医术高明\n可惜长年的工作导致小腿静脉曲张，行动不便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大爆炸中活下来的拆弹专家\n秘诀是从不脱下他的重装\n防御超高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,30 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOCTOR_STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOMBDISEX_STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAGICIAN_STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REBOT_STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPY_STORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The doctor who escaped from the infection department\n has excellent medical skills\nIt's a pity that the long-term work has caused varicose veins in the calf, which makes it difficult to move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bomb disposal expert who survived the Big Bang\nThe secret is never taking off his armor\nSuper defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,6 +428,338 @@
   </si>
   <si>
     <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆弹专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌特工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜鸟海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BombDisEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreatMagician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoutRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RookiePirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESSMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBDISEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATMAGICIAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINGSMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTROBOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOKIEPIRATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESSMAN_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBDISEX_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATMAGICIAN_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINGSMAN_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTROBOT_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOKIEPIRATE_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的打工人\n除了偶尔健身\n并无什么特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ordinary migrant workers\n have no special features except for occasional exercise\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗中的菜鸟\n船长死后独自出来冒险\n随身带着几个橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A rookie among pirates\nThe captain came out alone to take risks\nAfter the death of the captain, he took a few oranges with him</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESSMAN_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOMBDISEX_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATMAGICIAN_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KINGSMAN_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOUTROBOT_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOKIEPIRATE_SKILL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出绝望的吼叫\n推开身边所有敌人\n并给予一定伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放下一颗反步兵地雷\n触发后造成大幅度伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤流星雨\n随机攻击一定范围敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激发训练时的回忆\n短时间内免疫所有伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用身体特殊的能量\n向着特定方向闪现一段距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃下随身携带的橘子\n可以恢复一滴血（一局最多可以用两次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let out a desperate roar\npush away all enemies around you,\nand deal certain damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drops an Anti-Personnel Mine\nDeals massive damage when triggered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon meteor shower\nRandomly attack enemies within a certain range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stimulate memories of training\nImmune to all damage for a short time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoke the special energy of the body\nFlash a certain distance in a specific direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eat the oranges you carry with you\nYou can restore a drop of blood (can be used up to twice in a round)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消音冲锋枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技左轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pistol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleBarrel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLEBARREL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVOLVER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIZARDSTAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PISTOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PISTOL_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIZARDSTAFF_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVOLVER_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUBLEBARREL_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有未来科技的左轮手枪\n古老造型的背后\n是对过去的迷恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典设计的双管喷子\n简单耐用\n是你末日生存的首选武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽而又致命的消音冲锋枪\n即使目标死亡\n也不知都子弹是哪里打过来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够持续施法的法杖\n难道法杖就不会过热么\n或许是法师使用了降温魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威力巨大的RPG\n使用时候注意安全\n更加要注意友军火力哟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平平无奇的小手枪\n和它的主人一样，毫不起眼\n但即使这样，也要努力活下去啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An unremarkable little pistol\nLike its owner, it is inconspicuous\n But even so, we must work hard to live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful RPG\nBe careful when using it\nAlso pay attention to friendly firepower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A wand that can continue to cast spells\nWill the wand not be overheated\nMaybe the mage used cooling magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beautiful and deadly silenced submachine gun\nEven if the target dies\n I don't know where the bullets came from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolver with futuristic technology\nBehind the ancient shape\n is a fascination with the past</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The classic design of the double-pipe nozzle\nsimple and durable\nis your weapon of choice for doomsday survival</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,17 +1091,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="171.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1251,95 +1555,464 @@
         <v>88</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>2001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
+      <c r="B38">
+        <v>2002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>2005</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" t="s">
-        <v>104</v>
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>105</v>
+      <c r="B44">
+        <v>2101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>3001</v>
+        <v>2102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>2103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>2104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>2105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>2106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>2201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>2202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>2204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>2206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2301</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>2302</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>2303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>2304</v>
+      </c>
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>2305</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>2306</v>
+      </c>
+      <c r="C63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>2401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>2402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>2403</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>2404</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>2405</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>2406</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9AF1A-DF94-4AFB-A7F4-BF20EFDBB346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AA0E9-0D5A-46CC-B4ED-984191C2AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="187">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,6 +760,26 @@
   </si>
   <si>
     <t>The classic design of the double-pipe nozzle\nsimple and durable\nis your weapon of choice for doomsday survival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARTFIGHTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁 $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock $</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,6 +1575,34 @@
         <v>88</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1029</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1030</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AA0E9-0D5A-46CC-B4ED-984191C2AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0ED0F5-02EE-4C86-8A31-428D2FB825AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,6 +780,18 @@
   </si>
   <si>
     <t>Unlock $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你解锁人物成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations, you successfully unlocked the character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONGRATULATIONSUNLOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1603,6 +1615,20 @@
         <v>186</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1031</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0ED0F5-02EE-4C86-8A31-428D2FB825AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490ACB7-5EE3-42C8-9BE5-7FB3ADD595B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,6 +792,22 @@
   </si>
   <si>
     <t>CONGRATULATIONSUNLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOMBIE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>2401</v>
       </c>
@@ -2019,7 +2035,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>2402</v>
       </c>
@@ -2033,7 +2049,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>2403</v>
       </c>
@@ -2047,7 +2063,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>2404</v>
       </c>
@@ -2061,7 +2077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>2405</v>
       </c>
@@ -2075,7 +2091,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>2406</v>
       </c>
@@ -2087,6 +2103,28 @@
       </c>
       <c r="E70" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2501</v>
+      </c>
+      <c r="C72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490ACB7-5EE3-42C8-9BE5-7FB3ADD595B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019AA0E-7E9C-46E1-9551-738A82E3CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -808,6 +808,22 @@
   </si>
   <si>
     <t>ZOMBIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换弹中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reloading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELOADING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2127,6 +2143,28 @@
         <v>192</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>2601</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/resources/localization/Localization.xlsx
+++ b/assets/resources/localization/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019AA0E-7E9C-46E1-9551-738A82E3CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82962E91-9761-4561-BADF-3813852B281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="218">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,6 +824,86 @@
   </si>
   <si>
     <t>RELOADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAUSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESURRECTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATCH2REVIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Want to watch the video revive now?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否立即观看视频复活？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRYAGAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLEASETRYAGAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请继续努力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1662,485 +1742,497 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
+      <c r="B36">
+        <v>1032</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>205</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>2001</v>
+        <v>1033</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>2002</v>
+        <v>1034</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>2003</v>
+        <v>1035</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>2004</v>
+        <v>1036</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>2005</v>
+        <v>1037</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>2006</v>
+        <v>1038</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
+      <c r="B43">
+        <v>1039</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>2101</v>
+        <v>1040</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>2102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" t="s">
-        <v>94</v>
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>2103</v>
+        <v>2001</v>
       </c>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>2104</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>2105</v>
+        <v>2003</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>2106</v>
+        <v>2004</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
+      <c r="B50">
+        <v>2005</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>2201</v>
+        <v>2006</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>2202</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" t="s">
-        <v>141</v>
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>2203</v>
+        <v>2101</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>2204</v>
+        <v>2102</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>2205</v>
+        <v>2103</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>2206</v>
+        <v>2104</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>146</v>
+      <c r="B57">
+        <v>2105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>2301</v>
+        <v>2106</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <v>2302</v>
-      </c>
-      <c r="C59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" t="s">
-        <v>148</v>
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>2303</v>
+        <v>2201</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>2304</v>
+        <v>2202</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>2305</v>
+        <v>2203</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>2306</v>
+        <v>2204</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>159</v>
+      <c r="B64">
+        <v>2205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>2401</v>
+        <v>2206</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>2402</v>
-      </c>
-      <c r="C66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" t="s">
-        <v>177</v>
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>2403</v>
+        <v>2301</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>2404</v>
+        <v>2302</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>2405</v>
+        <v>2303</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>2406</v>
+        <v>2304</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>190</v>
+      <c r="B71">
+        <v>2305</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>2501</v>
+        <v>2306</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2148,20 +2240,134 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74">
+        <v>2401</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>2402</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>2403</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>2404</v>
+      </c>
+      <c r="C77" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>172</v>
+      </c>
+      <c r="E77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>2405</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>2406</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>2501</v>
+      </c>
+      <c r="C81" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83">
         <v>2601</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C83" t="s">
         <v>197</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D83" t="s">
         <v>195</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E83" t="s">
         <v>196</v>
       </c>
     </row>
